--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>217069.8391566543</v>
+        <v>214095.1780016504</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9144617.86140932</v>
+        <v>8948454.6043237</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20441951.88648733</v>
+        <v>20249692.27821771</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3912884.960667861</v>
+        <v>3981765.628455774</v>
       </c>
     </row>
     <row r="11">
@@ -2081,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>60.36402868517418</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>127.8386392216614</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,13 +2216,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C22" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>119.5504549011778</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2324,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>119.5504549011779</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F23" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2442,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V24" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>60.36402868517418</v>
       </c>
     </row>
     <row r="25">
@@ -2476,70 +2478,70 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="H25" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>119.5504549011778</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>135.7293992974318</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2567,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,19 +2636,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>62.74656791298154</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2755,31 +2757,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>81.39848696832993</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="U28" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V28" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="29">
@@ -2792,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>29.81855126207265</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W29" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2874,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2925,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W30" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y30" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2992,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3001,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>81.39848696833005</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V31" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W31" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X31" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>29.81855126207266</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3074,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,13 +3119,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,10 +3158,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>107.8256726521278</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3171,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>60.36402868517428</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3187,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,10 +3240,10 @@
         <v>119.5504549011778</v>
       </c>
       <c r="T34" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3266,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>130.2211784494688</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>135.7293992974318</v>
+        <v>3.336289776625397</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F36" t="n">
         <v>133.3468600696244</v>
@@ -3363,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3430,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3466,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>81.39848696832989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C38" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>29.81855126207266</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C39" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3630,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3703,31 +3705,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X40" t="n">
-        <v>81.39848696833002</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y40" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011778</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>29.81855126207272</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3752,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="X41" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>119.5504549011779</v>
       </c>
     </row>
     <row r="42">
@@ -3819,19 +3821,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>130.2211784494688</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="E42" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3870,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3940,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>81.39848696833005</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="X43" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="Y43" t="n">
         <v>135.7293992974318</v>
@@ -4022,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>29.81855126207265</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>147.9587552745337</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="C20" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="D20" t="n">
         <v>10.85835194379454</v>
@@ -5759,43 +5761,43 @@
         <v>274.1733865808121</v>
       </c>
       <c r="M20" t="n">
-        <v>274.1733865808121</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="N20" t="n">
-        <v>408.5454918852696</v>
+        <v>542.917597189727</v>
       </c>
       <c r="O20" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P20" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q20" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R20" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S20" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="T20" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="U20" t="n">
-        <v>542.9175971897271</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="V20" t="n">
-        <v>542.9175971897271</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="W20" t="n">
-        <v>422.159561936012</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="X20" t="n">
-        <v>285.0591586052728</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="Y20" t="n">
-        <v>147.9587552745337</v>
+        <v>131.6163871975095</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C21" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D21" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E21" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F21" t="n">
-        <v>139.58685192051</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G21" t="n">
         <v>10.85835194379454</v>
@@ -5832,10 +5834,10 @@
         <v>71.11249847690068</v>
       </c>
       <c r="K21" t="n">
-        <v>71.11249847690068</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L21" t="n">
-        <v>139.8012812763547</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="M21" t="n">
         <v>274.1733865808121</v>
@@ -5844,37 +5846,37 @@
         <v>274.1733865808121</v>
       </c>
       <c r="O21" t="n">
-        <v>408.5454918852696</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="P21" t="n">
-        <v>408.5454918852696</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q21" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R21" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="S21" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="T21" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="U21" t="n">
-        <v>405.8171938589879</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="V21" t="n">
-        <v>405.8171938589879</v>
+        <v>208.9325216231945</v>
       </c>
       <c r="W21" t="n">
-        <v>405.8171938589879</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="X21" t="n">
-        <v>405.8171938589879</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="Y21" t="n">
-        <v>405.8171938589879</v>
+        <v>71.83211829245533</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>542.917597189727</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="C22" t="n">
-        <v>405.8171938589878</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="D22" t="n">
         <v>268.7167905282487</v>
       </c>
       <c r="E22" t="n">
-        <v>131.6163871975095</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="F22" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G22" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H22" t="n">
         <v>10.85835194379454</v>
@@ -5911,19 +5913,19 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K22" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843787</v>
       </c>
       <c r="L22" t="n">
-        <v>145.0696190886975</v>
+        <v>145.0696190886974</v>
       </c>
       <c r="M22" t="n">
-        <v>263.0631252162992</v>
+        <v>263.0631252162991</v>
       </c>
       <c r="N22" t="n">
         <v>381.4854669658995</v>
       </c>
       <c r="O22" t="n">
-        <v>479.9491134615892</v>
+        <v>479.9491134615891</v>
       </c>
       <c r="P22" t="n">
         <v>542.917597189727</v>
@@ -5932,28 +5934,28 @@
         <v>542.917597189727</v>
       </c>
       <c r="R22" t="n">
-        <v>542.917597189727</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="S22" t="n">
-        <v>542.917597189727</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="T22" t="n">
-        <v>542.917597189727</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U22" t="n">
-        <v>542.917597189727</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V22" t="n">
-        <v>542.917597189727</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="W22" t="n">
-        <v>542.917597189727</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="X22" t="n">
-        <v>542.917597189727</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="Y22" t="n">
-        <v>542.917597189727</v>
+        <v>405.8171938589878</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>268.7167905282488</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="C23" t="n">
-        <v>268.7167905282488</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="D23" t="n">
-        <v>268.7167905282488</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="E23" t="n">
-        <v>147.9587552745337</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="F23" t="n">
-        <v>10.85835194379454</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="G23" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="H23" t="n">
         <v>10.85835194379454</v>
@@ -5990,49 +5992,49 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K23" t="n">
-        <v>179.7411328942751</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="L23" t="n">
-        <v>179.7411328942751</v>
+        <v>351.601106825515</v>
       </c>
       <c r="M23" t="n">
-        <v>179.7411328942751</v>
+        <v>485.9732121299725</v>
       </c>
       <c r="N23" t="n">
-        <v>314.1132381987326</v>
+        <v>542.917597189727</v>
       </c>
       <c r="O23" t="n">
-        <v>448.4853435031901</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P23" t="n">
-        <v>448.4853435031901</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q23" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R23" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S23" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T23" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U23" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V23" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W23" t="n">
-        <v>405.8171938589879</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X23" t="n">
-        <v>268.7167905282488</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="Y23" t="n">
-        <v>268.7167905282488</v>
+        <v>405.8171938589878</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C24" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D24" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E24" t="n">
         <v>10.85835194379454</v>
@@ -6066,52 +6068,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J24" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K24" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L24" t="n">
-        <v>205.4846037813581</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="M24" t="n">
-        <v>205.4846037813581</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N24" t="n">
-        <v>205.4846037813581</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="O24" t="n">
-        <v>274.1733865808121</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="P24" t="n">
-        <v>408.5454918852696</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q24" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R24" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="S24" t="n">
-        <v>405.8171938589879</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="T24" t="n">
-        <v>405.8171938589879</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="U24" t="n">
-        <v>405.8171938589879</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="V24" t="n">
-        <v>268.7167905282488</v>
+        <v>208.9325216231945</v>
       </c>
       <c r="W24" t="n">
-        <v>268.7167905282488</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="X24" t="n">
-        <v>268.7167905282488</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="Y24" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>268.7167905282487</v>
+        <v>422.159561936012</v>
       </c>
       <c r="C25" t="n">
-        <v>131.6163871975095</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="D25" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="E25" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="F25" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="G25" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H25" t="n">
         <v>10.85835194379454</v>
@@ -6175,22 +6177,22 @@
         <v>542.917597189727</v>
       </c>
       <c r="T25" t="n">
-        <v>405.8171938589878</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U25" t="n">
-        <v>405.8171938589878</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V25" t="n">
-        <v>405.8171938589878</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W25" t="n">
-        <v>405.8171938589878</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X25" t="n">
-        <v>268.7167905282487</v>
+        <v>422.159561936012</v>
       </c>
       <c r="Y25" t="n">
-        <v>268.7167905282487</v>
+        <v>422.159561936012</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="C26" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="D26" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="E26" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="F26" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="G26" t="n">
-        <v>10.85835194379454</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="H26" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="I26" t="n">
         <v>10.85835194379454</v>
@@ -6227,49 +6229,49 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K26" t="n">
-        <v>82.85689621660021</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="L26" t="n">
-        <v>217.2290015210577</v>
+        <v>351.601106825515</v>
       </c>
       <c r="M26" t="n">
-        <v>217.2290015210577</v>
+        <v>485.9732121299725</v>
       </c>
       <c r="N26" t="n">
-        <v>351.6011068255151</v>
+        <v>542.917597189727</v>
       </c>
       <c r="O26" t="n">
-        <v>485.9732121299726</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P26" t="n">
-        <v>485.9732121299726</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q26" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R26" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S26" t="n">
-        <v>405.8171938589879</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T26" t="n">
-        <v>405.8171938589879</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U26" t="n">
-        <v>405.8171938589879</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V26" t="n">
-        <v>405.8171938589879</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W26" t="n">
-        <v>285.0591586052728</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X26" t="n">
-        <v>147.9587552745337</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y26" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>131.6163871975096</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="C27" t="n">
-        <v>10.85835194379454</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="D27" t="n">
-        <v>10.85835194379454</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="E27" t="n">
-        <v>10.85835194379454</v>
+        <v>208.9325216231945</v>
       </c>
       <c r="F27" t="n">
-        <v>10.85835194379454</v>
+        <v>74.23872357306882</v>
       </c>
       <c r="G27" t="n">
         <v>10.85835194379454</v>
@@ -6303,52 +6305,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J27" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K27" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L27" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="M27" t="n">
-        <v>139.8012812763547</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N27" t="n">
-        <v>274.1733865808121</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="O27" t="n">
-        <v>408.5454918852696</v>
+        <v>413.9746678571668</v>
       </c>
       <c r="P27" t="n">
-        <v>408.5454918852696</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q27" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R27" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="S27" t="n">
-        <v>405.8171938589879</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="T27" t="n">
-        <v>268.7167905282488</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="U27" t="n">
-        <v>268.7167905282488</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="V27" t="n">
-        <v>131.6163871975096</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="W27" t="n">
-        <v>131.6163871975096</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="X27" t="n">
-        <v>131.6163871975096</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="Y27" t="n">
-        <v>131.6163871975096</v>
+        <v>346.0329249539336</v>
       </c>
     </row>
     <row r="28">
@@ -6385,7 +6387,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K28" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L28" t="n">
         <v>145.0696190886975</v>
@@ -6403,13 +6405,13 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q28" t="n">
-        <v>504.380255843416</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R28" t="n">
-        <v>422.159561936012</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S28" t="n">
-        <v>422.159561936012</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T28" t="n">
         <v>422.159561936012</v>
@@ -6418,13 +6420,13 @@
         <v>285.0591586052728</v>
       </c>
       <c r="V28" t="n">
+        <v>285.0591586052728</v>
+      </c>
+      <c r="W28" t="n">
         <v>147.9587552745337</v>
       </c>
-      <c r="W28" t="n">
-        <v>10.85835194379454</v>
-      </c>
       <c r="X28" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y28" t="n">
         <v>10.85835194379454</v>
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>147.9587552745337</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="C29" t="n">
-        <v>10.85835194379454</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="D29" t="n">
-        <v>10.85835194379454</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="E29" t="n">
-        <v>10.85835194379454</v>
+        <v>178.078504024102</v>
       </c>
       <c r="F29" t="n">
-        <v>10.85835194379454</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="G29" t="n">
-        <v>10.85835194379454</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="H29" t="n">
-        <v>10.85835194379454</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="I29" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J29" t="n">
-        <v>82.85689621660021</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K29" t="n">
-        <v>217.2290015210577</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L29" t="n">
-        <v>217.2290015210577</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="M29" t="n">
-        <v>274.1733865808121</v>
+        <v>45.36902758981768</v>
       </c>
       <c r="N29" t="n">
-        <v>274.1733865808121</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="O29" t="n">
-        <v>408.5454918852696</v>
+        <v>314.1132381987325</v>
       </c>
       <c r="P29" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q29" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R29" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="S29" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="T29" t="n">
-        <v>422.159561936012</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="U29" t="n">
-        <v>422.159561936012</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="V29" t="n">
-        <v>422.159561936012</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="W29" t="n">
-        <v>285.0591586052728</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="X29" t="n">
-        <v>147.9587552745337</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="Y29" t="n">
-        <v>147.9587552745337</v>
+        <v>315.1789073548412</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C30" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D30" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E30" t="n">
         <v>10.85835194379454</v>
@@ -6540,52 +6542,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J30" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K30" t="n">
-        <v>205.4846037813581</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L30" t="n">
-        <v>274.1733865808121</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M30" t="n">
-        <v>408.5454918852696</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="N30" t="n">
-        <v>408.5454918852696</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="O30" t="n">
-        <v>408.5454918852696</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="P30" t="n">
-        <v>408.5454918852696</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q30" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R30" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S30" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T30" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U30" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="V30" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="W30" t="n">
-        <v>405.8171938589879</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X30" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y30" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="C31" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="D31" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="E31" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="F31" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="G31" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="H31" t="n">
         <v>10.85835194379454</v>
@@ -6622,49 +6624,49 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K31" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843787</v>
       </c>
       <c r="L31" t="n">
-        <v>145.0696190886975</v>
+        <v>145.0696190886974</v>
       </c>
       <c r="M31" t="n">
-        <v>263.0631252162992</v>
+        <v>263.0631252162991</v>
       </c>
       <c r="N31" t="n">
         <v>381.4854669658995</v>
       </c>
       <c r="O31" t="n">
-        <v>479.9491134615892</v>
+        <v>479.9491134615891</v>
       </c>
       <c r="P31" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q31" t="n">
-        <v>504.3802558434161</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R31" t="n">
-        <v>504.3802558434161</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S31" t="n">
-        <v>504.3802558434161</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T31" t="n">
-        <v>422.159561936012</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U31" t="n">
-        <v>422.159561936012</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V31" t="n">
-        <v>285.0591586052728</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="W31" t="n">
-        <v>147.9587552745337</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="X31" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>10.85835194379454</v>
+        <v>178.078504024102</v>
       </c>
       <c r="C32" t="n">
-        <v>10.85835194379454</v>
+        <v>178.078504024102</v>
       </c>
       <c r="D32" t="n">
-        <v>10.85835194379454</v>
+        <v>178.078504024102</v>
       </c>
       <c r="E32" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="F32" t="n">
         <v>10.85835194379454</v>
@@ -6698,52 +6700,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J32" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K32" t="n">
-        <v>145.230457248252</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="L32" t="n">
-        <v>279.6025625527094</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="M32" t="n">
-        <v>279.6025625527094</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="N32" t="n">
-        <v>413.9746678571669</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="O32" t="n">
-        <v>542.9175971897271</v>
+        <v>314.1132381987325</v>
       </c>
       <c r="P32" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q32" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R32" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="S32" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="T32" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="U32" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="V32" t="n">
-        <v>422.159561936012</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="W32" t="n">
-        <v>285.0591586052728</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="X32" t="n">
-        <v>147.9587552745337</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.85835194379454</v>
+        <v>315.1789073548412</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10.85835194379454</v>
+        <v>374.2185074239376</v>
       </c>
       <c r="C33" t="n">
-        <v>10.85835194379454</v>
+        <v>374.2185074239376</v>
       </c>
       <c r="D33" t="n">
-        <v>10.85835194379454</v>
+        <v>374.2185074239376</v>
       </c>
       <c r="E33" t="n">
-        <v>10.85835194379454</v>
+        <v>374.2185074239376</v>
       </c>
       <c r="F33" t="n">
-        <v>10.85835194379454</v>
+        <v>239.5247093738119</v>
       </c>
       <c r="G33" t="n">
-        <v>10.85835194379454</v>
+        <v>110.7962093970965</v>
       </c>
       <c r="H33" t="n">
         <v>10.85835194379454</v>
@@ -6777,52 +6779,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J33" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K33" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L33" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="M33" t="n">
-        <v>205.4846037813581</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="N33" t="n">
-        <v>339.8567090858156</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="O33" t="n">
-        <v>408.5454918852696</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="P33" t="n">
-        <v>408.5454918852696</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q33" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R33" t="n">
-        <v>483.1333282846729</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="S33" t="n">
-        <v>346.0329249539337</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="T33" t="n">
-        <v>346.0329249539337</v>
+        <v>374.2185074239376</v>
       </c>
       <c r="U33" t="n">
-        <v>346.0329249539337</v>
+        <v>374.2185074239376</v>
       </c>
       <c r="V33" t="n">
-        <v>346.0329249539337</v>
+        <v>374.2185074239376</v>
       </c>
       <c r="W33" t="n">
-        <v>346.0329249539337</v>
+        <v>374.2185074239376</v>
       </c>
       <c r="X33" t="n">
-        <v>285.0591586052728</v>
+        <v>374.2185074239376</v>
       </c>
       <c r="Y33" t="n">
-        <v>147.9587552745337</v>
+        <v>374.2185074239376</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>422.159561936012</v>
+      </c>
+      <c r="C34" t="n">
+        <v>285.0591586052728</v>
+      </c>
+      <c r="D34" t="n">
+        <v>285.0591586052728</v>
+      </c>
+      <c r="E34" t="n">
+        <v>285.0591586052728</v>
+      </c>
+      <c r="F34" t="n">
         <v>147.9587552745337</v>
-      </c>
-      <c r="C34" t="n">
-        <v>147.9587552745337</v>
-      </c>
-      <c r="D34" t="n">
-        <v>147.9587552745337</v>
-      </c>
-      <c r="E34" t="n">
-        <v>10.85835194379454</v>
-      </c>
-      <c r="F34" t="n">
-        <v>10.85835194379454</v>
       </c>
       <c r="G34" t="n">
         <v>10.85835194379454</v>
@@ -6859,7 +6861,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K34" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L34" t="n">
         <v>145.0696190886975</v>
@@ -6886,22 +6888,22 @@
         <v>422.159561936012</v>
       </c>
       <c r="T34" t="n">
-        <v>285.0591586052728</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U34" t="n">
-        <v>147.9587552745337</v>
+        <v>422.159561936012</v>
       </c>
       <c r="V34" t="n">
-        <v>147.9587552745337</v>
+        <v>422.159561936012</v>
       </c>
       <c r="W34" t="n">
-        <v>147.9587552745337</v>
+        <v>422.159561936012</v>
       </c>
       <c r="X34" t="n">
-        <v>147.9587552745337</v>
+        <v>422.159561936012</v>
       </c>
       <c r="Y34" t="n">
-        <v>147.9587552745337</v>
+        <v>422.159561936012</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>268.7167905282488</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="C35" t="n">
-        <v>147.9587552745337</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="D35" t="n">
-        <v>147.9587552745337</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="E35" t="n">
-        <v>147.9587552745337</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="F35" t="n">
-        <v>147.9587552745337</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="G35" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="H35" t="n">
         <v>10.85835194379454</v>
@@ -6941,46 +6943,46 @@
         <v>10.85835194379454</v>
       </c>
       <c r="L35" t="n">
-        <v>45.36902758981768</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="M35" t="n">
-        <v>179.7411328942751</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="N35" t="n">
-        <v>314.1132381987326</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="O35" t="n">
-        <v>448.4853435031901</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P35" t="n">
-        <v>448.4853435031901</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q35" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R35" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S35" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T35" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U35" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V35" t="n">
-        <v>405.8171938589879</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="W35" t="n">
-        <v>405.8171938589879</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="X35" t="n">
-        <v>405.8171938589879</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="Y35" t="n">
-        <v>268.7167905282488</v>
+        <v>405.8171938589878</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="C36" t="n">
-        <v>411.3810533013748</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="D36" t="n">
-        <v>274.2806499706356</v>
+        <v>479.7633386113138</v>
       </c>
       <c r="E36" t="n">
-        <v>274.2806499706356</v>
+        <v>342.6629352805746</v>
       </c>
       <c r="F36" t="n">
-        <v>139.58685192051</v>
+        <v>207.969137230449</v>
       </c>
       <c r="G36" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="H36" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="I36" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J36" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K36" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L36" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="M36" t="n">
+        <v>10.85835194379454</v>
+      </c>
+      <c r="N36" t="n">
         <v>139.8012812763547</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>274.1733865808121</v>
       </c>
-      <c r="O36" t="n">
-        <v>408.5454918852696</v>
-      </c>
       <c r="P36" t="n">
-        <v>542.9175971897271</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q36" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R36" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="S36" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="T36" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="U36" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="V36" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="W36" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="X36" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="Y36" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="C37" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="D37" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="E37" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="F37" t="n">
-        <v>10.85835194379454</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="G37" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="H37" t="n">
         <v>10.85835194379454</v>
@@ -7096,7 +7098,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K37" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L37" t="n">
         <v>145.0696190886975</v>
@@ -7114,31 +7116,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q37" t="n">
-        <v>504.380255843416</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R37" t="n">
-        <v>367.2798525126768</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S37" t="n">
-        <v>367.2798525126768</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T37" t="n">
-        <v>367.2798525126768</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U37" t="n">
-        <v>230.1794491819377</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V37" t="n">
-        <v>93.07904585119849</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W37" t="n">
-        <v>93.07904585119849</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X37" t="n">
-        <v>93.07904585119849</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y37" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8171938589879</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="C38" t="n">
-        <v>268.7167905282488</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="D38" t="n">
-        <v>131.6163871975096</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="E38" t="n">
-        <v>10.85835194379454</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="F38" t="n">
-        <v>10.85835194379454</v>
+        <v>178.078504024102</v>
       </c>
       <c r="G38" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H38" t="n">
         <v>10.85835194379454</v>
@@ -7175,49 +7177,49 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K38" t="n">
-        <v>217.2290015210577</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="L38" t="n">
-        <v>351.6011068255151</v>
+        <v>351.601106825515</v>
       </c>
       <c r="M38" t="n">
-        <v>485.9732121299726</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="N38" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="O38" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="P38" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q38" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R38" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="S38" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="T38" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="U38" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="V38" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="W38" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="X38" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="Y38" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C39" t="n">
         <v>10.85835194379454</v>
@@ -7263,34 +7265,34 @@
         <v>205.4846037813581</v>
       </c>
       <c r="N39" t="n">
-        <v>339.8567090858156</v>
+        <v>339.8567090858155</v>
       </c>
       <c r="O39" t="n">
-        <v>408.5454918852696</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="P39" t="n">
-        <v>542.9175971897271</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q39" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R39" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S39" t="n">
-        <v>405.8171938589879</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T39" t="n">
-        <v>268.7167905282488</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U39" t="n">
-        <v>147.9587552745337</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V39" t="n">
-        <v>147.9587552745337</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="W39" t="n">
-        <v>147.9587552745337</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="X39" t="n">
         <v>147.9587552745337</v>
@@ -7333,7 +7335,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K40" t="n">
-        <v>44.46253968843799</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L40" t="n">
         <v>145.0696190886975</v>
@@ -7342,37 +7344,37 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N40" t="n">
-        <v>381.4854669658996</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O40" t="n">
-        <v>479.9491134615893</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P40" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q40" t="n">
-        <v>504.3802558434161</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R40" t="n">
-        <v>367.2798525126769</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S40" t="n">
-        <v>230.1794491819378</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T40" t="n">
-        <v>230.1794491819378</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U40" t="n">
-        <v>230.1794491819378</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V40" t="n">
-        <v>230.1794491819378</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="W40" t="n">
-        <v>230.1794491819378</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="X40" t="n">
-        <v>147.9587552745337</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="Y40" t="n">
         <v>10.85835194379454</v>
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10.85835194379454</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="C41" t="n">
-        <v>10.85835194379454</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="D41" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="E41" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="F41" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G41" t="n">
         <v>10.85835194379454</v>
@@ -7412,49 +7414,49 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K41" t="n">
-        <v>139.8012812763547</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="L41" t="n">
-        <v>139.8012812763547</v>
+        <v>314.1132381987326</v>
       </c>
       <c r="M41" t="n">
-        <v>274.1733865808121</v>
+        <v>314.1132381987326</v>
       </c>
       <c r="N41" t="n">
-        <v>408.5454918852696</v>
+        <v>314.1132381987326</v>
       </c>
       <c r="O41" t="n">
-        <v>408.5454918852696</v>
+        <v>314.1132381987326</v>
       </c>
       <c r="P41" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="Q41" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="R41" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="S41" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="T41" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="U41" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="V41" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="W41" t="n">
-        <v>405.8171938589879</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="X41" t="n">
-        <v>268.7167905282488</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="Y41" t="n">
-        <v>147.9587552745337</v>
+        <v>315.1789073548413</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>131.6163871975096</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="C42" t="n">
-        <v>131.6163871975096</v>
+        <v>411.3810533013748</v>
       </c>
       <c r="D42" t="n">
-        <v>131.6163871975096</v>
+        <v>274.2806499706356</v>
       </c>
       <c r="E42" t="n">
-        <v>10.85835194379454</v>
+        <v>274.2806499706356</v>
       </c>
       <c r="F42" t="n">
-        <v>10.85835194379454</v>
+        <v>139.58685192051</v>
       </c>
       <c r="G42" t="n">
         <v>10.85835194379454</v>
@@ -7494,16 +7496,16 @@
         <v>145.230457248252</v>
       </c>
       <c r="L42" t="n">
-        <v>274.1733865808121</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M42" t="n">
-        <v>274.1733865808121</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N42" t="n">
         <v>274.1733865808121</v>
       </c>
       <c r="O42" t="n">
-        <v>274.1733865808121</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="P42" t="n">
         <v>408.5454918852696</v>
@@ -7518,22 +7520,22 @@
         <v>542.9175971897271</v>
       </c>
       <c r="T42" t="n">
-        <v>405.8171938589879</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U42" t="n">
-        <v>268.7167905282488</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V42" t="n">
-        <v>131.6163871975096</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W42" t="n">
-        <v>131.6163871975096</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="X42" t="n">
-        <v>131.6163871975096</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Y42" t="n">
-        <v>131.6163871975096</v>
+        <v>542.9175971897271</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="C43" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="D43" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="E43" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="F43" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="G43" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="H43" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="I43" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="J43" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="K43" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843799</v>
       </c>
       <c r="L43" t="n">
         <v>145.0696190886975</v>
@@ -7579,7 +7581,7 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N43" t="n">
-        <v>381.4854669658996</v>
+        <v>381.4854669658997</v>
       </c>
       <c r="O43" t="n">
         <v>479.9491134615893</v>
@@ -7588,31 +7590,31 @@
         <v>542.9175971897271</v>
       </c>
       <c r="Q43" t="n">
-        <v>504.3802558434161</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R43" t="n">
-        <v>422.159561936012</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S43" t="n">
-        <v>422.159561936012</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T43" t="n">
-        <v>422.159561936012</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U43" t="n">
-        <v>285.0591586052728</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V43" t="n">
-        <v>285.0591586052728</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="W43" t="n">
-        <v>285.0591586052728</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="X43" t="n">
         <v>147.9587552745337</v>
       </c>
       <c r="Y43" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>351.601106825515</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>485.9732121299725</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>178.078504024102</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>145.0696190886975</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>263.0631252162992</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
     </row>
   </sheetData>
@@ -9404,16 +9406,16 @@
         <v>309.0683871382489</v>
       </c>
       <c r="L20" t="n">
-        <v>327.2896114605464</v>
+        <v>327.2896114605463</v>
       </c>
       <c r="M20" t="n">
-        <v>187.1563144971591</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N20" t="n">
-        <v>322.1275134696619</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O20" t="n">
-        <v>322.6841960775522</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P20" t="n">
         <v>187.8768090511565</v>
@@ -9480,25 +9482,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>111.9961691666667</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L21" t="n">
-        <v>181.9580424594851</v>
+        <v>181.9580424594852</v>
       </c>
       <c r="M21" t="n">
-        <v>251.2133018590717</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N21" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O21" t="n">
-        <v>251.5888479085429</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P21" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q21" t="n">
-        <v>249.4645907423243</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9559,7 +9561,7 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K22" t="n">
-        <v>138.7668962480483</v>
+        <v>138.7668962480482</v>
       </c>
       <c r="L22" t="n">
         <v>211.2171120040207</v>
@@ -9638,25 +9640,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>276.6858693050315</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L23" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605463</v>
       </c>
       <c r="M23" t="n">
-        <v>187.1563144971591</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N23" t="n">
-        <v>322.1275134696619</v>
+        <v>243.917695040669</v>
       </c>
       <c r="O23" t="n">
-        <v>322.6841960775522</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P23" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,28 +9716,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L24" t="n">
-        <v>248.3048328685796</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M24" t="n">
-        <v>115.4839025616399</v>
+        <v>251.2133018590716</v>
       </c>
       <c r="N24" t="n">
-        <v>106.7151410677083</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O24" t="n">
-        <v>185.2420574994484</v>
+        <v>246.1048317753133</v>
       </c>
       <c r="P24" t="n">
         <v>244.5836053215751</v>
       </c>
       <c r="Q24" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9875,25 +9877,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K26" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L26" t="n">
-        <v>327.2896114605464</v>
+        <v>327.2896114605463</v>
       </c>
       <c r="M26" t="n">
-        <v>187.1563144971591</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N26" t="n">
-        <v>322.1275134696619</v>
+        <v>243.917695040669</v>
       </c>
       <c r="O26" t="n">
-        <v>322.6841960775522</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P26" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q26" t="n">
-        <v>238.1429538914291</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R26" t="n">
         <v>85.43134583487716</v>
@@ -9951,7 +9953,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
         <v>111.9961691666667</v>
@@ -9960,19 +9962,19 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M27" t="n">
-        <v>184.8665114499773</v>
+        <v>251.2133018590716</v>
       </c>
       <c r="N27" t="n">
         <v>242.4445403651401</v>
       </c>
       <c r="O27" t="n">
-        <v>251.5888479085429</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P27" t="n">
-        <v>108.8542060241433</v>
+        <v>239.0995891883455</v>
       </c>
       <c r="Q27" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K29" t="n">
-        <v>314.5524032714785</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L29" t="n">
         <v>191.5602121631146</v>
       </c>
       <c r="M29" t="n">
-        <v>244.6758953655979</v>
+        <v>222.0155828264754</v>
       </c>
       <c r="N29" t="n">
-        <v>186.3981141722301</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O29" t="n">
         <v>322.6841960775522</v>
       </c>
       <c r="P29" t="n">
-        <v>323.6062083485883</v>
+        <v>323.6062083485882</v>
       </c>
       <c r="Q29" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R29" t="n">
         <v>85.43134583487716</v>
@@ -10188,16 +10190,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K30" t="n">
-        <v>247.7255684640984</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L30" t="n">
-        <v>181.9580424594851</v>
+        <v>248.3048328685795</v>
       </c>
       <c r="M30" t="n">
-        <v>251.2133018590717</v>
+        <v>251.2133018590716</v>
       </c>
       <c r="N30" t="n">
         <v>106.7151410677083</v>
@@ -10206,10 +10208,10 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P30" t="n">
-        <v>108.8542060241433</v>
+        <v>239.0995891883455</v>
       </c>
       <c r="Q30" t="n">
-        <v>249.4645907423243</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10270,7 +10272,7 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
-        <v>138.7668962480483</v>
+        <v>138.7668962480482</v>
       </c>
       <c r="L31" t="n">
         <v>211.2171120040207</v>
@@ -10285,7 +10287,7 @@
         <v>211.9541662756472</v>
       </c>
       <c r="P31" t="n">
-        <v>175.5085323082535</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q31" t="n">
         <v>84.9458458910769</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K32" t="n">
-        <v>314.5524032714785</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L32" t="n">
-        <v>327.2896114605464</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M32" t="n">
         <v>187.1563144971591</v>
       </c>
       <c r="N32" t="n">
-        <v>322.1275134696619</v>
+        <v>284.2609795032149</v>
       </c>
       <c r="O32" t="n">
-        <v>317.2001799443227</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P32" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485882</v>
       </c>
       <c r="Q32" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R32" t="n">
         <v>85.43134583487716</v>
@@ -10425,7 +10427,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K33" t="n">
         <v>111.9961691666667</v>
@@ -10434,19 +10436,19 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M33" t="n">
-        <v>251.2133018590717</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N33" t="n">
-        <v>242.4445403651401</v>
+        <v>236.9605242319105</v>
       </c>
       <c r="O33" t="n">
-        <v>185.2420574994484</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P33" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q33" t="n">
-        <v>249.4645907423243</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10589,13 +10591,13 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L35" t="n">
-        <v>226.4194804924309</v>
+        <v>321.8055953273168</v>
       </c>
       <c r="M35" t="n">
         <v>322.8857137945909</v>
       </c>
       <c r="N35" t="n">
-        <v>322.1275134696619</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O35" t="n">
         <v>322.6841960775522</v>
@@ -10604,7 +10606,7 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,7 +10664,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
         <v>111.9961691666667</v>
@@ -10671,19 +10673,19 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M36" t="n">
-        <v>184.8665114499773</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N36" t="n">
-        <v>242.4445403651401</v>
+        <v>236.9605242319105</v>
       </c>
       <c r="O36" t="n">
-        <v>251.5888479085429</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P36" t="n">
         <v>244.5836053215751</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10826,13 +10828,13 @@
         <v>314.5524032714785</v>
       </c>
       <c r="L38" t="n">
-        <v>327.2896114605464</v>
+        <v>327.2896114605463</v>
       </c>
       <c r="M38" t="n">
-        <v>322.8857137945909</v>
+        <v>285.0191798281438</v>
       </c>
       <c r="N38" t="n">
-        <v>243.917695040669</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O38" t="n">
         <v>186.9547967801205</v>
@@ -10841,7 +10843,7 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q38" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10908,19 +10910,19 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M39" t="n">
-        <v>251.2133018590717</v>
+        <v>251.2133018590716</v>
       </c>
       <c r="N39" t="n">
         <v>242.4445403651401</v>
       </c>
       <c r="O39" t="n">
-        <v>185.2420574994484</v>
+        <v>185.2420574994485</v>
       </c>
       <c r="P39" t="n">
-        <v>244.5836053215751</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11060,16 +11062,16 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>236.3425848424856</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L41" t="n">
-        <v>191.5602121631146</v>
+        <v>289.4230774940994</v>
       </c>
       <c r="M41" t="n">
-        <v>322.8857137945909</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N41" t="n">
-        <v>322.1275134696619</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O41" t="n">
         <v>186.9547967801205</v>
@@ -11078,7 +11080,7 @@
         <v>323.6062083485883</v>
       </c>
       <c r="Q41" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11142,19 +11144,19 @@
         <v>247.7255684640984</v>
       </c>
       <c r="L42" t="n">
-        <v>242.82081673535</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M42" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N42" t="n">
-        <v>106.7151410677083</v>
+        <v>236.9605242319105</v>
       </c>
       <c r="O42" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085429</v>
       </c>
       <c r="P42" t="n">
-        <v>244.5836053215751</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q42" t="n">
         <v>249.4645907423243</v>
@@ -11221,7 +11223,7 @@
         <v>138.7668962480483</v>
       </c>
       <c r="L43" t="n">
-        <v>211.2171120040208</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M43" t="n">
         <v>232.0625591822793</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L44" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605463</v>
       </c>
       <c r="M44" t="n">
-        <v>187.1563144971591</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N44" t="n">
-        <v>186.3981141722301</v>
+        <v>243.917695040669</v>
       </c>
       <c r="O44" t="n">
         <v>186.9547967801205</v>
@@ -11373,10 +11375,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>111.9961691666667</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L45" t="n">
         <v>112.5754335711478</v>
@@ -11388,13 +11390,13 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O45" t="n">
-        <v>115.8594486111111</v>
+        <v>185.2420574994485</v>
       </c>
       <c r="P45" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -11455,22 +11457,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>104.82327226356</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L46" t="n">
-        <v>109.5937994785061</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M46" t="n">
-        <v>112.8771994574291</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N46" t="n">
-        <v>103.744504878002</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O46" t="n">
-        <v>112.4959374921223</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P46" t="n">
-        <v>111.9040032899324</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q46" t="n">
         <v>84.9458458910769</v>
@@ -23969,10 +23971,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>242.3850217830889</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>249.5452702238708</v>
       </c>
       <c r="E20" t="n">
         <v>390.8378626949542</v>
@@ -24017,25 +24019,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>185.3566856159496</v>
+        <v>49.62728631851783</v>
       </c>
       <c r="T20" t="n">
-        <v>222.1153568062989</v>
+        <v>86.38595750886719</v>
       </c>
       <c r="U20" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257142</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>239.359125939797</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>253.8770375724886</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>97.46121966827408</v>
       </c>
       <c r="C21" t="n">
         <v>160.0866360314548</v>
@@ -24054,13 +24056,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>9.828330546265704</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>5.50822084796296</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
         <v>98.93847887876893</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -24102,13 +24104,13 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U21" t="n">
-        <v>80.58044518024116</v>
+        <v>80.58044518024118</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871762</v>
       </c>
       <c r="W21" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>45.99041570010428</v>
       </c>
       <c r="C22" t="n">
-        <v>32.19041054550473</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>15.81177494308312</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>14.75952479886257</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>31.40539352330285</v>
+        <v>31.40539352330281</v>
       </c>
       <c r="G22" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7789187685189</v>
+        <v>22.04951947108717</v>
       </c>
       <c r="I22" t="n">
         <v>142.7610139533483</v>
@@ -24172,7 +24174,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>12.29716427433382</v>
       </c>
       <c r="S22" t="n">
         <v>211.5726649703493</v>
@@ -24212,16 +24214,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>271.2874077937763</v>
+        <v>255.1084633975225</v>
       </c>
       <c r="F23" t="n">
-        <v>274.2802794854996</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9429466803539</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H23" t="n">
-        <v>329.4930616586638</v>
+        <v>209.942606757486</v>
       </c>
       <c r="I23" t="n">
         <v>171.0890268032919</v>
@@ -24266,7 +24268,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>223.1801815435432</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
         <v>242.4804397762898</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>22.0958490560165</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
         <v>160.0866360314548</v>
@@ -24291,7 +24293,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>26.00727494251956</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
         <v>133.3468600696244</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>15.54209281995534</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
-        <v>216.3098444776729</v>
+        <v>80.58044518024118</v>
       </c>
       <c r="V24" t="n">
-        <v>90.38226702871759</v>
+        <v>90.38226702871762</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X24" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>190.5961130869169</v>
+        <v>130.2320844017428</v>
       </c>
     </row>
     <row r="25">
@@ -24364,10 +24366,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>32.19041054550473</v>
+        <v>32.19041054550476</v>
       </c>
       <c r="D25" t="n">
-        <v>31.99071933933709</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
@@ -24376,10 +24378,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>167.2305511458285</v>
+        <v>31.50115184839674</v>
       </c>
       <c r="H25" t="n">
-        <v>157.7789187685189</v>
+        <v>22.04951947108717</v>
       </c>
       <c r="I25" t="n">
         <v>142.7610139533483</v>
@@ -24415,7 +24417,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T25" t="n">
-        <v>95.11776435504618</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U25" t="n">
         <v>284.3183371157911</v>
@@ -24427,7 +24429,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>93.21054016614622</v>
+        <v>109.3894845624002</v>
       </c>
       <c r="Y25" t="n">
         <v>219.8148072196457</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>254.3737048254072</v>
       </c>
       <c r="C26" t="n">
         <v>378.1144210805207</v>
@@ -24455,13 +24457,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9429466803539</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H26" t="n">
-        <v>329.4930616586638</v>
+        <v>193.7636623612321</v>
       </c>
       <c r="I26" t="n">
-        <v>171.0890268032919</v>
+        <v>51.53857190211411</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
-        <v>49.6272863185178</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T26" t="n">
         <v>222.1153568062989</v>
@@ -24503,13 +24505,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>239.359125939797</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>253.8770375724886</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -24522,19 +24524,19 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C27" t="n">
-        <v>40.53618113027693</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D27" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>145.5577298436975</v>
+        <v>9.828330546265732</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>64.69464706396673</v>
       </c>
       <c r="H27" t="n">
         <v>98.93847887876893</v>
@@ -24567,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>15.54209281995534</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>51.06885349824287</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
-        <v>90.38226702871759</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W27" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X27" t="n">
         <v>195.9378182409833</v>
@@ -24643,22 +24645,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
-        <v>66.62807660343563</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S28" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T28" t="n">
-        <v>230.8471636524779</v>
+        <v>111.2967087513001</v>
       </c>
       <c r="U28" t="n">
-        <v>148.5889378183593</v>
+        <v>148.5889378183594</v>
       </c>
       <c r="V28" t="n">
-        <v>122.3985520997298</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
         <v>147.5654381703431</v>
@@ -24667,7 +24669,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.8148072196457</v>
+        <v>84.08540792221393</v>
       </c>
     </row>
     <row r="29">
@@ -24680,16 +24682,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>242.3850217830889</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>255.1084633975225</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G29" t="n">
         <v>411.9429466803539</v>
@@ -24698,7 +24700,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I29" t="n">
-        <v>171.0890268032919</v>
+        <v>141.2704755412193</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
-        <v>102.564901905121</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>197.8800820655863</v>
       </c>
       <c r="W29" t="n">
-        <v>223.1801815435432</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -24762,10 +24764,10 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D30" t="n">
-        <v>17.89979573851211</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E30" t="n">
-        <v>9.828330546265704</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
         <v>133.3468600696244</v>
@@ -24813,19 +24815,19 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
-        <v>216.3098444776729</v>
+        <v>96.75938957649511</v>
       </c>
       <c r="V30" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871762</v>
       </c>
       <c r="W30" t="n">
         <v>103.1733107815913</v>
       </c>
       <c r="X30" t="n">
-        <v>195.9378182409833</v>
+        <v>60.20841894355161</v>
       </c>
       <c r="Y30" t="n">
-        <v>54.86671378948517</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="31">
@@ -24853,7 +24855,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H31" t="n">
-        <v>157.7789187685189</v>
+        <v>38.22846386734108</v>
       </c>
       <c r="I31" t="n">
         <v>142.7610139533483</v>
@@ -24880,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
         <v>148.0265635717656</v>
@@ -24889,19 +24891,19 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T31" t="n">
-        <v>149.4486766841479</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U31" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183594</v>
       </c>
       <c r="V31" t="n">
-        <v>122.3985520997298</v>
+        <v>122.3985520997299</v>
       </c>
       <c r="W31" t="n">
         <v>147.5654381703431</v>
       </c>
       <c r="X31" t="n">
-        <v>93.21054016614622</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
         <v>219.8148072196457</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>254.3737048254072</v>
       </c>
       <c r="C32" t="n">
         <v>378.1144210805207</v>
@@ -24923,10 +24925,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>361.0193114328815</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G32" t="n">
         <v>411.9429466803539</v>
@@ -24962,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>185.3566856159496</v>
+        <v>49.62728631851783</v>
       </c>
       <c r="T32" t="n">
         <v>222.1153568062989</v>
@@ -24974,16 +24976,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
-        <v>214.0590264618401</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>223.1801815435432</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>253.8770375724886</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>22.0958490560165</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C33" t="n">
         <v>160.0866360314548</v>
@@ -25005,13 +25007,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>67.69846245683961</v>
@@ -25044,10 +25046,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>15.54209281995534</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
-        <v>186.7982527956746</v>
+        <v>78.97258014354682</v>
       </c>
       <c r="U33" t="n">
         <v>216.3098444776729</v>
@@ -25059,10 +25061,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
-        <v>135.5737895558091</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y33" t="n">
-        <v>54.86671378948517</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="34">
@@ -25075,19 +25077,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>167.9198098429365</v>
+        <v>32.19041054550476</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
-        <v>14.75952479886257</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
-        <v>150.9558484244806</v>
+        <v>15.22644912704891</v>
       </c>
       <c r="G34" t="n">
-        <v>167.2305511458285</v>
+        <v>31.50115184839674</v>
       </c>
       <c r="H34" t="n">
         <v>157.7789187685189</v>
@@ -25126,10 +25128,10 @@
         <v>92.02221006917149</v>
       </c>
       <c r="T34" t="n">
-        <v>95.11776435504618</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U34" t="n">
-        <v>148.5889378183593</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -25154,13 +25156,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>258.5639661793427</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>255.1084633975225</v>
       </c>
       <c r="F35" t="n">
         <v>410.0096787829314</v>
@@ -25169,7 +25171,7 @@
         <v>276.2135473829221</v>
       </c>
       <c r="H35" t="n">
-        <v>329.4930616586638</v>
+        <v>209.942606757486</v>
       </c>
       <c r="I35" t="n">
         <v>171.0890268032919</v>
@@ -25220,7 +25222,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>253.8770375724886</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -25233,13 +25235,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
-        <v>29.86545758198608</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
-        <v>1.720851342258271</v>
+        <v>134.1139608630646</v>
       </c>
       <c r="E36" t="n">
-        <v>145.5577298436975</v>
+        <v>9.828330546265732</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25251,7 +25253,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -25318,16 +25320,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>14.7595247988626</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>15.22644912704891</v>
       </c>
       <c r="G37" t="n">
-        <v>167.2305511458285</v>
+        <v>31.50115184839674</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7789187685189</v>
+        <v>38.22846386734108</v>
       </c>
       <c r="I37" t="n">
         <v>142.7610139533483</v>
@@ -25354,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>12.2971642743338</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
         <v>211.5726649703493</v>
@@ -25366,10 +25368,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
-        <v>148.5889378183593</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
-        <v>122.3985520997298</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
         <v>283.2948374677749</v>
@@ -25378,7 +25380,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>138.4163202513158</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -25391,22 +25393,22 @@
         <v>254.3737048254072</v>
       </c>
       <c r="C38" t="n">
-        <v>242.3850217830889</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>233.3663258276169</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>271.2874077937763</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9429466803539</v>
+        <v>382.1243954182812</v>
       </c>
       <c r="H38" t="n">
-        <v>329.4930616586638</v>
+        <v>193.7636623612321</v>
       </c>
       <c r="I38" t="n">
         <v>171.0890268032919</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>185.3566856159496</v>
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>157.8252483534483</v>
+        <v>22.09584905601653</v>
       </c>
       <c r="C39" t="n">
-        <v>24.35723673402308</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
         <v>137.45025063969</v>
@@ -25518,22 +25520,22 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
-        <v>15.54209281995534</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
-        <v>51.06885349824287</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
-        <v>96.759389576495</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871762</v>
       </c>
       <c r="W39" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X39" t="n">
-        <v>195.9378182409833</v>
+        <v>76.3873633398055</v>
       </c>
       <c r="Y39" t="n">
         <v>190.5961130869169</v>
@@ -25591,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>12.2971642743338</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S40" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T40" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183594</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X40" t="n">
-        <v>147.541452495248</v>
+        <v>93.21054016614625</v>
       </c>
       <c r="Y40" t="n">
-        <v>84.0854079222139</v>
+        <v>100.2643523184678</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>254.3737048254072</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>242.3850217830889</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>339.2771738629759</v>
       </c>
       <c r="E41" t="n">
         <v>390.8378626949542</v>
@@ -25640,7 +25642,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9429466803539</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H41" t="n">
         <v>329.4930616586638</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>185.3566856159496</v>
@@ -25688,13 +25690,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>223.1801815435432</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>270.0559819687424</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="42">
@@ -25707,19 +25709,19 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C42" t="n">
-        <v>160.0866360314548</v>
+        <v>29.86545758198608</v>
       </c>
       <c r="D42" t="n">
-        <v>137.45025063969</v>
+        <v>1.720851342258271</v>
       </c>
       <c r="E42" t="n">
-        <v>26.00727494251956</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>98.93847887876893</v>
@@ -25758,13 +25760,13 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>51.06885349824287</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
-        <v>80.58044518024116</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V42" t="n">
-        <v>90.38226702871759</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
         <v>238.9027100790231</v>
@@ -25828,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>66.62807660343552</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
         <v>211.5726649703493</v>
@@ -25840,16 +25842,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
-        <v>148.5889378183593</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>122.3985520997298</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X43" t="n">
-        <v>93.21054016614622</v>
+        <v>109.3894845624001</v>
       </c>
       <c r="Y43" t="n">
         <v>84.0854079222139</v>
@@ -25910,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>185.3566856159496</v>
+        <v>49.62728631851783</v>
       </c>
       <c r="T44" t="n">
-        <v>222.1153568062989</v>
+        <v>86.38595750886719</v>
       </c>
       <c r="U44" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257142</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>303.7909301009454</v>
       </c>
       <c r="W44" t="n">
         <v>358.909580840975</v>
@@ -25941,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>157.8252483534483</v>
+        <v>22.09584905601653</v>
       </c>
       <c r="C45" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
-        <v>137.45025063969</v>
+        <v>1.7208513422583</v>
       </c>
       <c r="E45" t="n">
-        <v>145.5577298436975</v>
+        <v>9.828330546265732</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>13.79640516844657</v>
       </c>
       <c r="G45" t="n">
         <v>127.4412149769483</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.719814997536</v>
+        <v>45.99041570010428</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>32.19041054550476</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>15.81177494308315</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>31.40539352330282</v>
       </c>
       <c r="G46" t="n">
         <v>167.2305511458285</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>400588.4687601674</v>
+        <v>400588.4687601677</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>400588.4687601674</v>
+        <v>400588.4687601675</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>400588.4687601677</v>
+        <v>400588.4687601675</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>400588.4687601677</v>
+        <v>400588.4687601674</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>400588.4687601675</v>
+        <v>400588.4687601674</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>281309.4386566844</v>
+        <v>400588.4687601674</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>45372.49010591686</v>
+      </c>
+      <c r="C2" t="n">
         <v>45372.49010591685</v>
       </c>
-      <c r="C2" t="n">
-        <v>45372.49010591686</v>
-      </c>
       <c r="D2" t="n">
-        <v>45372.49010591686</v>
+        <v>45372.49010591685</v>
       </c>
       <c r="E2" t="n">
         <v>45372.49010591686</v>
@@ -26326,34 +26328,34 @@
         <v>45372.49010591686</v>
       </c>
       <c r="G2" t="n">
-        <v>45372.49010591686</v>
+        <v>45372.49010591685</v>
       </c>
       <c r="H2" t="n">
-        <v>64598.45093287862</v>
+        <v>64598.45093287861</v>
       </c>
       <c r="I2" t="n">
-        <v>64598.45093287861</v>
+        <v>64598.4509328786</v>
       </c>
       <c r="J2" t="n">
         <v>64598.45093287862</v>
       </c>
       <c r="K2" t="n">
-        <v>64598.45093287862</v>
+        <v>64598.45093287859</v>
       </c>
       <c r="L2" t="n">
         <v>64598.45093287861</v>
       </c>
       <c r="M2" t="n">
-        <v>64598.45093287861</v>
+        <v>64598.45093287863</v>
       </c>
       <c r="N2" t="n">
-        <v>64598.45093287862</v>
+        <v>64598.4509328786</v>
       </c>
       <c r="O2" t="n">
         <v>64598.45093287862</v>
       </c>
       <c r="P2" t="n">
-        <v>45372.49010591685</v>
+        <v>64598.45093287861</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>32082.90102953112</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26420,46 @@
         <v>9074.498021183372</v>
       </c>
       <c r="C4" t="n">
-        <v>9074.49802118337</v>
+        <v>9074.498021183372</v>
       </c>
       <c r="D4" t="n">
         <v>9074.498021183372</v>
       </c>
       <c r="E4" t="n">
-        <v>9074.49802118337</v>
+        <v>9074.498021183372</v>
       </c>
       <c r="F4" t="n">
         <v>9074.498021183372</v>
       </c>
       <c r="G4" t="n">
-        <v>9074.49802118337</v>
+        <v>9074.498021183372</v>
       </c>
       <c r="H4" t="n">
         <v>13115.46111714717</v>
       </c>
       <c r="I4" t="n">
-        <v>13115.46111714717</v>
+        <v>13115.46111714718</v>
       </c>
       <c r="J4" t="n">
-        <v>13115.46111714717</v>
+        <v>13115.46111714718</v>
       </c>
       <c r="K4" t="n">
         <v>13115.46111714718</v>
       </c>
       <c r="L4" t="n">
+        <v>13115.46111714717</v>
+      </c>
+      <c r="M4" t="n">
         <v>13115.46111714718</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>13115.46111714717</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13115.46111714718</v>
       </c>
       <c r="O4" t="n">
         <v>13115.46111714718</v>
       </c>
       <c r="P4" t="n">
-        <v>9074.498021183372</v>
+        <v>13115.46111714717</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26487,31 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="I5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="J5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="K5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="L5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="M5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="N5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="O5" t="n">
         <v>8252.347477283851</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>8252.347477283849</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2670.392084733474</v>
+        <v>2670.392084733488</v>
       </c>
       <c r="C6" t="n">
-        <v>2670.392084733488</v>
+        <v>2670.392084733481</v>
       </c>
       <c r="D6" t="n">
-        <v>2670.392084733488</v>
+        <v>2670.392084733481</v>
       </c>
       <c r="E6" t="n">
         <v>36297.99208473349</v>
@@ -26534,10 +26536,10 @@
         <v>36297.99208473349</v>
       </c>
       <c r="G6" t="n">
-        <v>36297.99208473349</v>
+        <v>36297.99208473347</v>
       </c>
       <c r="H6" t="n">
-        <v>6609.628843406817</v>
+        <v>6609.628843406819</v>
       </c>
       <c r="I6" t="n">
         <v>43230.64233844758</v>
@@ -26546,22 +26548,22 @@
         <v>43230.64233844759</v>
       </c>
       <c r="K6" t="n">
+        <v>43230.64233844757</v>
+      </c>
+      <c r="L6" t="n">
         <v>43230.64233844759</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>43230.64233844761</v>
+      </c>
+      <c r="N6" t="n">
         <v>43230.64233844758</v>
-      </c>
-      <c r="M6" t="n">
-        <v>43230.64233844758</v>
-      </c>
-      <c r="N6" t="n">
-        <v>43230.64233844759</v>
       </c>
       <c r="O6" t="n">
         <v>43230.64233844759</v>
       </c>
       <c r="P6" t="n">
-        <v>36297.99208473347</v>
+        <v>11147.74130891646</v>
       </c>
     </row>
   </sheetData>
@@ -26805,31 +26807,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="J4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="K4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O4" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
   </sheetData>
@@ -27027,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
   </sheetData>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
   </sheetData>
@@ -36124,16 +36126,16 @@
         <v>130.2453831642022</v>
       </c>
       <c r="L20" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N20" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L21" t="n">
-        <v>69.38260888833736</v>
+        <v>69.3826088883374</v>
       </c>
       <c r="M21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q21" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>33.9436239844883</v>
+        <v>33.94362398448821</v>
       </c>
       <c r="L22" t="n">
         <v>101.6233125255146</v>
@@ -36358,25 +36360,25 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>97.86286533098477</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N23" t="n">
-        <v>135.7293992974318</v>
+        <v>57.51958086843889</v>
       </c>
       <c r="O23" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O24" t="n">
-        <v>69.38260888833734</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="P24" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,25 +36597,25 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L26" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N26" t="n">
-        <v>135.7293992974318</v>
+        <v>57.51958086843889</v>
       </c>
       <c r="O26" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>57.51958086843889</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>69.38260888833736</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N27" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O27" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>57.51958086843886</v>
+        <v>34.8592683293163</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O29" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P29" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>69.38260888833734</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M30" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36926,10 +36928,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>33.9436239844883</v>
+        <v>33.94362398448821</v>
       </c>
       <c r="L31" t="n">
         <v>101.6233125255146</v>
@@ -37005,7 +37007,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P31" t="n">
-        <v>63.60452901832108</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K32" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>135.7293992974318</v>
+        <v>97.86286533098475</v>
       </c>
       <c r="O32" t="n">
-        <v>130.2453831642022</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>135.7293992974318</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="O33" t="n">
-        <v>69.38260888833734</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,22 +37311,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>34.85926832931629</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="M35" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N35" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O35" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>69.38260888833736</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>135.7293992974318</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="O36" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P36" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,16 +37545,16 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L38" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M38" t="n">
-        <v>135.7293992974318</v>
+        <v>97.86286533098475</v>
       </c>
       <c r="N38" t="n">
-        <v>57.51958086843889</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N39" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O39" t="n">
-        <v>69.38260888833734</v>
+        <v>69.3826088883374</v>
       </c>
       <c r="P39" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>33.94362398448833</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L40" t="n">
         <v>101.6233125255146</v>
@@ -37780,16 +37782,16 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>57.51958086843886</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>97.86286533098477</v>
       </c>
       <c r="M41" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,19 +37864,19 @@
         <v>135.7293992974318</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>130.2453831642022</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="P42" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>135.7293992974318</v>
@@ -37941,7 +37943,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
-        <v>101.6233125255147</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
         <v>119.1853597248502</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>57.51958086843889</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>69.3826088883374</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
